--- a/train_data.xlsx
+++ b/train_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,12 @@
       <c r="N1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -502,21 +508,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Castricum</t>
+          <t>Amsterdam Sloterdijk</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Beverwijk</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>Haarlem</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Heemstede-Aerdenhout</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,12 +548,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Rotterdam Alexander</t>
+          <t>Schiedam Centrum</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Gouda</t>
+          <t>Delft</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -556,23 +568,33 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Alphen a/d Rijn</t>
+          <t>Heemstede-Aerdenhout</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Gouda</t>
+          <t>Haarlem</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Den Haag Centraal</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>Beverwijk</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Castricum</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Zaandam</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -582,12 +604,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Schiedam Centrum</t>
+          <t>Rotterdam Alexander</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Delft</t>
+          <t>Gouda</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -597,54 +619,40 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Delft</t>
+          <t>Gouda</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Schiedam Centrum</t>
+          <t>Alphen a/d Rijn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rotterdam Centraal</t>
+          <t>Leiden Centraal</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rotterdam Alexander</t>
+          <t>Schiphol Airport</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Rotterdam Centraal</t>
+          <t>Amsterdam Zuid</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Schiedam Centrum</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Rotterdam Centraal</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Rotterdam Alexander</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Rotterdam Centraal</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Dordrecht</t>
-        </is>
-      </c>
+          <t>Amsterdam Sloterdijk</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -654,61 +662,79 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Heemstede-Aerdenhout</t>
+          <t>Rotterdam Alexander</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Haarlem</t>
+          <t>Rotterdam Centraal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Beverwijk</t>
+          <t>Schiedam Centrum</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Delft</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Amsterdam Sloterdijk</t>
+          <t>Schiedam Centrum</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Amsterdam Centraal</t>
+          <t>Rotterdam Centraal</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Amsterdam Amstel</t>
+          <t>Schiedam Centrum</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Amsterdam Zuid</t>
+          <t>Delft</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Amsterdam Sloterdijk</t>
+          <t>Schiedam Centrum</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Haarlem</t>
+          <t>Delft</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Heemstede-Aerdenhout</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+          <t>Schiedam Centrum</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Rotterdam Centraal</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Dordrecht</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Rotterdam Centraal</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Rotterdam Alexander</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -718,69 +744,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Heemstede-Aerdenhout</t>
+          <t>Castricum</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Leiden Centraal</t>
+          <t>Alkmaar</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Schiphol Airport</t>
+          <t>Den Helder</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Amsterdam Zuid</t>
+          <t>Alkmaar</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Schiphol Airport</t>
+          <t>Castricum</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Amsterdam Zuid</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Amsterdam Amstel</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Amsterdam Centraal</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Amsterdam Sloterdijk</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Amsterdam Zuid</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Amsterdam Sloterdijk</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Amsterdam Centraal</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Amsterdam Amstel</t>
-        </is>
-      </c>
+          <t>Beverwijk</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -790,30 +790,34 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Beverwijk</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Zaandam</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Castricum</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Alkmaar</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Den Helder</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Alkmaar</t>
+          <t>Zaandam</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Den Helder</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>Beverwijk</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Zaandam</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -821,6 +825,8 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -830,57 +836,67 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Castricum</t>
+          <t>Amsterdam Sloterdijk</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Beverwijk</t>
+          <t>Amsterdam Centraal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Castricum</t>
+          <t>Amsterdam Amstel</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Beverwijk</t>
+          <t>Amsterdam Zuid</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Castricum</t>
+          <t>Schiphol Airport</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Zaandam</t>
+          <t>Leiden Centraal</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Amsterdam Sloterdijk</t>
+          <t>Heemstede-Aerdenhout</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>Leiden Centraal</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Heemstede-Aerdenhout</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Leiden Centraal</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Schiphol Airport</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
           <t>Amsterdam Zuid</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Schiphol Airport</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Leiden Centraal</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
